--- a/资源数据库设计.xlsx
+++ b/资源数据库设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
     <t>数据类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,9 +38,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>Checked</t>
-  </si>
-  <si>
     <t>ResourceID</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>RentEndTime</t>
   </si>
   <si>
-    <t>RentEndRealTime</t>
-  </si>
-  <si>
     <t>CustLongName</t>
   </si>
   <si>
@@ -161,18 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实际结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">客户名称 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>联系电话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Checked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>业务类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,14 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Checked</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据来源主键信息，比如订单合同编号，多丽管家支付编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T_ResourceStatus 资源状态表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,9 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unchecked</t>
-  </si>
-  <si>
     <t>客户占用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,7 +229,48 @@
     <t>bit</t>
   </si>
   <si>
-    <t>数据是否失效</t>
+    <t>业务系统数据主键，
+比如订单合同编号，
+多丽管家订单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁有效性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人名/公司全称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">人名/公司简称 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -327,7 +335,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -350,56 +358,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,451 +767,455 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="11"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="E2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>32</v>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="3">
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="3">
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
+      <c r="C8" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>55</v>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="3">
         <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="17"/>
       <c r="E12" s="3">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="3">
         <v>5</v>
       </c>
       <c r="F13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="6">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="6">
-        <v>2</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="D9:D13"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/资源数据库设计.xlsx
+++ b/资源数据库设计.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T_ResourceStatus" sheetId="1" r:id="rId1"/>
+    <sheet name="T_ResourcePublic" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="97">
   <si>
     <t>数据类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +272,114 @@
   </si>
   <si>
     <t xml:space="preserve">人名/公司简称 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>AZWEnable</t>
+  </si>
+  <si>
+    <t>AZGJEnable</t>
+  </si>
+  <si>
+    <t>ZYPTEnable</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>CreateUser</t>
+  </si>
+  <si>
+    <t>CreateTime</t>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，值默认为guid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布等级，等级越小，排得越前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发布到艾众网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发布到多丽管家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否发布到资源平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布最后修改用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布最后修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，待审核
+2，审核通过
+3，审核不通过
+4，上架
+5，下架
+6，作废</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/false，否
+1/true，是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_ResourcePublic 资源发布表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/false，否
+1/true，是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/false，否
+1/true，是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源编号，外键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -419,18 +528,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,15 +583,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -767,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -782,14 +906,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -804,10 +928,10 @@
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="20"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -826,16 +950,16 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="3">
@@ -846,10 +970,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="17"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="3">
         <v>2</v>
       </c>
@@ -858,10 +982,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="17"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="3">
         <v>3</v>
       </c>
@@ -898,22 +1022,22 @@
       <c r="D8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="3">
@@ -924,10 +1048,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="3">
         <v>2</v>
       </c>
@@ -936,10 +1060,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="17"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="3">
         <v>3</v>
       </c>
@@ -948,10 +1072,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="17"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="3">
         <v>4</v>
       </c>
@@ -960,10 +1084,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="17"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="3">
         <v>5</v>
       </c>
@@ -1100,16 +1224,16 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>46</v>
       </c>
       <c r="E22" s="6">
@@ -1120,10 +1244,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="15"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="6">
         <v>2</v>
       </c>
@@ -1132,16 +1256,16 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="C24" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>64</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -1152,10 +1276,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="12"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="2" t="s">
         <v>61</v>
       </c>
@@ -1197,13 +1321,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="D22:D23"/>
@@ -1216,6 +1333,269 @@
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="109.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/资源数据库设计.xlsx
+++ b/资源数据库设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="T_ResourceStatus" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="94">
   <si>
     <t>数据类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,9 +222,6 @@
   <si>
     <t>Status</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable</t>
   </si>
   <si>
     <t>bit</t>
@@ -233,26 +230,6 @@
     <t>业务系统数据主键，
 比如订单合同编号，
 多丽管家订单编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0/false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退租</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在租</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>租赁有效性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -380,6 +357,18 @@
   </si>
   <si>
     <t>资源编号，外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RentArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal(15,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁面积</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -543,46 +532,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -889,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -906,14 +892,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -928,10 +914,10 @@
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="16"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -941,7 +927,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>53</v>
@@ -950,16 +936,16 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="25" t="s">
+      <c r="C4" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="3">
@@ -970,10 +956,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="25"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="3">
         <v>2</v>
       </c>
@@ -982,10 +968,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="3">
         <v>3</v>
       </c>
@@ -1001,7 +987,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>31</v>
@@ -1017,27 +1003,27 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="22"/>
+      <c r="E8" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="25" t="s">
+      <c r="C9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E9" s="3">
@@ -1048,10 +1034,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="3">
         <v>2</v>
       </c>
@@ -1060,10 +1046,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="25"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="3">
         <v>3</v>
       </c>
@@ -1072,10 +1058,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="25"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="3">
         <v>4</v>
       </c>
@@ -1084,10 +1070,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="25"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="3">
         <v>5</v>
       </c>
@@ -1103,7 +1089,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>38</v>
@@ -1119,7 +1105,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>39</v>
@@ -1128,205 +1114,189 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>68</v>
+      <c r="A16" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B23" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="23" t="s">
+      <c r="C23" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E23" s="6">
         <v>1</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="6">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="6">
         <v>2</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
     <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="A25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="15">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="D9:D13"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="B9:B13"/>
@@ -1336,10 +1306,6 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1351,7 +1317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1365,13 +1331,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
+      <c r="A1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1398,10 +1364,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -1413,153 +1379,153 @@
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="109.2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E13" s="9"/>
     </row>
@@ -1571,10 +1537,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E14" s="9"/>
     </row>
@@ -1586,10 +1552,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E15" s="9"/>
     </row>

--- a/资源数据库设计.xlsx
+++ b/资源数据库设计.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="96">
   <si>
     <t>数据类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,26 +125,6 @@
   </si>
   <si>
     <t>业务编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单租赁合同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单物业合同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会议室订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会议室预留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源系统占用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -369,6 +349,34 @@
   </si>
   <si>
     <t>租赁面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空闲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源-客户占用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源-内部占用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多丽管家-订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多丽管家-预留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单系统-租赁合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单系统-物业合同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -537,6 +545,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -875,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -888,18 +902,18 @@
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="A1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -914,10 +928,10 @@
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -927,25 +941,25 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="A4" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="3">
@@ -956,10 +970,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="21"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="3">
         <v>2</v>
       </c>
@@ -968,10 +982,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="3">
         <v>3</v>
       </c>
@@ -987,7 +1001,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>31</v>
@@ -1003,304 +1017,328 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="16"/>
+      <c r="E8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>49</v>
+      <c r="A9" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="21"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="21"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="3">
         <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="21"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="3">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="15">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>37</v>
+      <c r="F13" s="15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>93</v>
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>62</v>
+      <c r="A17" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="C24" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="6">
         <v>1</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="6">
+      <c r="F24" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="6">
         <v>2</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="F25" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="16">
+        <v>3</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="C27" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="C28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
@@ -1331,13 +1369,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="A1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1364,10 +1402,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -1379,153 +1417,153 @@
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E13" s="9"/>
     </row>
@@ -1537,10 +1575,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E14" s="9"/>
     </row>
@@ -1552,10 +1590,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E15" s="9"/>
     </row>

--- a/资源数据库设计.xlsx
+++ b/资源数据库设计.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="99">
   <si>
     <t>数据类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,14 +189,6 @@
   </si>
   <si>
     <t>主键，递增</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户占用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部占用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -377,6 +369,26 @@
   </si>
   <si>
     <t>订单系统-物业合同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RnetType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租赁类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.客户占用;2，内部占用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -552,6 +564,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,6 +588,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -578,9 +599,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -891,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -902,18 +920,18 @@
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -928,10 +946,10 @@
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -941,7 +959,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>48</v>
@@ -950,16 +968,16 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="3">
@@ -970,10 +988,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="23"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="3">
         <v>2</v>
       </c>
@@ -982,10 +1000,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="3">
         <v>3</v>
       </c>
@@ -1001,7 +1019,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>31</v>
@@ -1017,94 +1035,94 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="18"/>
+      <c r="E8" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="23"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="23"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="3">
         <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="23"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="3">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="23"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="15">
         <v>5</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
       <c r="E14" s="3">
         <v>6</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
@@ -1115,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>33</v>
@@ -1131,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>34</v>
@@ -1141,158 +1159,162 @@
     </row>
     <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>57</v>
+      <c r="A18" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="19" t="s">
+      <c r="C25" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E25" s="6">
         <v>1</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="6">
+      <c r="F25" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="6">
         <v>2</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="16">
-        <v>3</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>89</v>
+      <c r="F26" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
@@ -1303,7 +1325,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>39</v>
@@ -1319,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>40</v>
@@ -1331,10 +1353,10 @@
   <mergeCells count="15">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="D9:D14"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="B9:B14"/>
@@ -1369,13 +1391,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="A1" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -1402,10 +1424,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3" s="9"/>
     </row>
@@ -1417,153 +1439,153 @@
         <v>7</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E13" s="9"/>
     </row>
@@ -1575,10 +1597,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E14" s="9"/>
     </row>
@@ -1590,10 +1612,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E15" s="9"/>
     </row>
